--- a/mercury/src/test/resources/testdata/manifest-import/test-manifest-rearranged-columns.xlsx
+++ b/mercury/src/test/resources/testdata/manifest-import/test-manifest-rearranged-columns.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9480" yWindow="1520" windowWidth="25600" windowHeight="20460"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="15580"/>
   </bookViews>
   <sheets>
     <sheet name="Buick Example" sheetId="2" r:id="rId1"/>
@@ -246,12 +246,6 @@
     <t>24-Apr-2012</t>
   </si>
   <si>
-    <t>T/N</t>
-  </si>
-  <si>
-    <t>Sample ID</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
@@ -262,13 +256,19 @@
   </si>
   <si>
     <t>Normal</t>
+  </si>
+  <si>
+    <t>SAMPLE_TYPE</t>
+  </si>
+  <si>
+    <t>Specimen_Number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -292,8 +292,15 @@
       <color theme="11"/>
       <name val="MS Sans Serif"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="MS Sans Serif"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,6 +317,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCD5B4"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -350,10 +363,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -770,7 +783,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -786,8 +799,8 @@
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>74</v>
+      <c r="B1" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -799,15 +812,15 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -824,10 +837,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
@@ -844,10 +857,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -864,10 +877,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
@@ -884,10 +897,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
@@ -904,10 +917,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>21</v>
@@ -924,10 +937,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>24</v>
@@ -944,10 +957,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>27</v>
@@ -964,10 +977,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>30</v>
@@ -984,10 +997,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>33</v>
@@ -1004,10 +1017,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>36</v>
@@ -1024,10 +1037,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>39</v>
@@ -1044,10 +1057,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>42</v>
@@ -1064,10 +1077,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>45</v>
@@ -1084,10 +1097,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>48</v>
@@ -1104,10 +1117,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>51</v>
@@ -1124,10 +1137,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>54</v>
@@ -1144,10 +1157,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>57</v>
@@ -1164,10 +1177,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>60</v>
@@ -1184,10 +1197,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>63</v>
@@ -1204,10 +1217,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>66</v>
@@ -1224,10 +1237,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>69</v>
@@ -1244,10 +1257,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>72</v>

--- a/mercury/src/test/resources/testdata/manifest-import/test-manifest-rearranged-columns.xlsx
+++ b/mercury/src/test/resources/testdata/manifest-import/test-manifest-rearranged-columns.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="15580"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="82">
   <si>
     <t>Patient_ID</t>
   </si>
@@ -262,6 +262,12 @@
   </si>
   <si>
     <t>Specimen_Number</t>
+  </si>
+  <si>
+    <t>Material Type</t>
+  </si>
+  <si>
+    <t>DNA:Genomic</t>
   </si>
 </sst>
 </file>
@@ -300,7 +306,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -322,6 +328,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFCD5B4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -352,7 +364,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -365,6 +377,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -780,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E1" sqref="E1:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -791,11 +806,12 @@
     <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -808,14 +824,17 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>74</v>
       </c>
@@ -828,14 +847,17 @@
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
+      <c r="E2" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>75</v>
       </c>
@@ -848,14 +870,17 @@
       <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
+      <c r="E3" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>75</v>
       </c>
@@ -868,14 +893,17 @@
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
+      <c r="E4" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>74</v>
       </c>
@@ -888,14 +916,17 @@
       <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>7</v>
+      <c r="E5" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>74</v>
       </c>
@@ -908,14 +939,17 @@
       <c r="D6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>7</v>
+      <c r="E6" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
         <v>75</v>
       </c>
@@ -928,14 +962,17 @@
       <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>7</v>
+      <c r="E7" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>75</v>
       </c>
@@ -948,14 +985,17 @@
       <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>7</v>
+      <c r="E8" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
         <v>74</v>
       </c>
@@ -968,14 +1008,17 @@
       <c r="D9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>7</v>
+      <c r="E9" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
         <v>74</v>
       </c>
@@ -988,14 +1031,17 @@
       <c r="D10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>7</v>
+      <c r="E10" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
         <v>75</v>
       </c>
@@ -1008,14 +1054,17 @@
       <c r="D11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>7</v>
+      <c r="E11" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
         <v>75</v>
       </c>
@@ -1028,14 +1077,17 @@
       <c r="D12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>7</v>
+      <c r="E12" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
         <v>74</v>
       </c>
@@ -1048,14 +1100,17 @@
       <c r="D13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>7</v>
+      <c r="E13" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
         <v>74</v>
       </c>
@@ -1068,14 +1123,17 @@
       <c r="D14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>7</v>
+      <c r="E14" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
         <v>75</v>
       </c>
@@ -1088,14 +1146,17 @@
       <c r="D15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>7</v>
+      <c r="E15" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
         <v>75</v>
       </c>
@@ -1108,14 +1169,17 @@
       <c r="D16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>7</v>
+      <c r="E16" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7">
       <c r="A17" s="3" t="s">
         <v>74</v>
       </c>
@@ -1128,14 +1192,17 @@
       <c r="D17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>7</v>
+      <c r="E17" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
         <v>74</v>
       </c>
@@ -1148,14 +1215,17 @@
       <c r="D18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>7</v>
+      <c r="E18" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="F18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
         <v>75</v>
       </c>
@@ -1168,14 +1238,17 @@
       <c r="D19" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>7</v>
+      <c r="E19" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
         <v>75</v>
       </c>
@@ -1188,14 +1261,17 @@
       <c r="D20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>7</v>
+      <c r="E20" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
         <v>74</v>
       </c>
@@ -1208,14 +1284,17 @@
       <c r="D21" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>7</v>
+      <c r="E21" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
         <v>74</v>
       </c>
@@ -1228,14 +1307,17 @@
       <c r="D22" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>7</v>
+      <c r="E22" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
         <v>75</v>
       </c>
@@ -1248,14 +1330,17 @@
       <c r="D23" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>7</v>
+      <c r="E23" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="F23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
         <v>75</v>
       </c>
@@ -1268,10 +1353,13 @@
       <c r="D24" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>7</v>
+      <c r="E24" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="F24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>71</v>
       </c>
     </row>
